--- a/listofavailablereports.xlsx
+++ b/listofavailablereports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcb0168e\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\mcb\rtsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66A8D46-6957-46F2-9C73-5A5F0B254319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48CA28-BD85-4BDF-A0F7-59D817449D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission Sequence" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="172">
   <si>
     <t>STATUS</t>
   </si>
@@ -537,6 +537,18 @@
   </si>
   <si>
     <t>available</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>mcb</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K98"/>
+  <dimension ref="B1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1956,6 +1968,9 @@
       <c r="H38" t="s">
         <v>137</v>
       </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="13.5">
       <c r="B39" s="2">
@@ -3335,6 +3350,47 @@
       </c>
       <c r="K98" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="13.5">
+      <c r="E100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="13.5">
+      <c r="D101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101">
+        <v>16</v>
+      </c>
+      <c r="F101" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="13.5">
+      <c r="D102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102">
+        <v>57</v>
+      </c>
+      <c r="F102" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="13.5">
+      <c r="D103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103">
+        <v>23</v>
+      </c>
+      <c r="F103" s="9">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
